--- a/mapping/ChemCatChem_OBI.xlsx
+++ b/mapping/ChemCatChem_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -61,7 +61,13 @@
     <t>{'label': 'machine learning'}</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>[locstr('immbolization is a process by which material entity become (possibly covalently but not necessarily) attached to the surface of another material entity used a substratum.', 'en')]</t>
+  </si>
+  <si>
+    <t>['Any aliphatic monocarboxylic acid derived from or contained in esterified form in an animal or vegetable fat, oil or wax. Natural fatty acids commonly have a chain of 4 to 28 carbons (usually unbranched and even-numbered), which may be saturated or unsaturated. By extension, the term is sometimes used to embrace all acyclic aliphatic carboxylic acids.', 'Any aliphatic monocarboxylic acid derived from or contained in esterified form in an animal or vegetable fat, oil or wax. Natural fatty acids commonly have a chain of 4 to 28 carbons (usually unbranched and even-numbered), which may be saturated or unsaturated. By extension, the term is sometimes used to embrace all acyclic aliphatic carboxylic acids.']</t>
+  </si>
+  <si>
+    <t>['A planned process with the objective to give a computer the ability to use patterns in data to progressively improve its performance on a specific task, achieved by using statistical techniques instead of explicitly programming the ability.']</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -512,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
